--- a/document/Product-Details.xlsx
+++ b/document/Product-Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Year3_Semester2\E-Commerce\Phân tích thiết kế\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC065FD-784B-459F-948B-BA1CCC8E248C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69964EAF-E6B9-45BE-8F1F-C8FD26B12F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CEDE4694-DC51-4D85-ADCC-94E0EF472F12}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve"> Program Outline</t>
   </si>
@@ -80,37 +80,97 @@
     <t>2.1. Xử lý click button Thêm vào giỏ hàng</t>
   </si>
   <si>
-    <t>1.1. Count: 1</t>
-  </si>
-  <si>
     <t>Số lượng hàng hóa nhỏ nhất có thể chọn là 1</t>
   </si>
   <si>
     <t>Product details</t>
   </si>
   <si>
-    <t xml:space="preserve">Thêm hàng hóa đã chọn vào giỏ hàng. </t>
-  </si>
-  <si>
-    <t>Chuyển giao diện qua trang giỏ hàng</t>
-  </si>
-  <si>
-    <t>2.2. Xử lý click button chọn số lượng</t>
-  </si>
-  <si>
-    <t>Xổ ra danh sách số lượng mặt hàng còn lại. Số lượng cao nhất bằng với số lượng còn lại hiện tại trong kho.</t>
-  </si>
-  <si>
-    <t>2.3. Xử lý click button bình luận</t>
-  </si>
-  <si>
-    <t>Xử lý xổ ra list rating khi người dùng chọn.</t>
-  </si>
-  <si>
-    <t>Nếu người dùng chưa chọn Rating hoặc chưa nhập bình luận thì hiển thị thông báo lỗi.</t>
-  </si>
-  <si>
-    <t>Khi người dùng đã nhập đầy đủ và nhấn bình luận thì hiển thị thông báo review thành công và hiển thị lên trang giới thiệu của sản phẩm.</t>
+    <t>1.2. count: 0</t>
+  </si>
+  <si>
+    <t>1.3. txtCmt: Set rỗng</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>totalPrice</t>
+  </si>
+  <si>
+    <t>Lấy các thông tin của sản phẩm bao gồm:</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vừa chọn vào giỏ hàng và hiển thị các thông tin tương ứng của mặt hàng</t>
+  </si>
+  <si>
+    <t>1.1. Hiển thị toàn bộ thông tin chi tiết của sản phẩm bao gồm: price, status, rating, discount, count, image, description</t>
+  </si>
+  <si>
+    <t>2.2. Xử lý click Button chọn Số lượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị ra danh sách số lượng mặt hàng còn lại. Số cao nhất bằng với giá trị max của count </t>
+  </si>
+  <si>
+    <t>Kiểm tra input của txtCmt xem đã được nhập chưa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4. cbbRating: 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu người dùng đã nhập input </t>
+  </si>
+  <si>
+    <t>Kiểm tra xem người dùng đã Review ở sản phẩm này hay chưa</t>
+  </si>
+  <si>
+    <t>Người dùng đã Review thì hiển thị thông báo: "Product already Reviewed" và ngừng xử lý.</t>
+  </si>
+  <si>
+    <t>Người dùng chưa Review thì lưu dữ liệu input vào DB và hiển thị thông báo: "Review successfully"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu người dùng chưa nhập input </t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo: "Comments cannot be left blank" và ngừng xử lý</t>
+  </si>
+  <si>
+    <t>2.3. Xử lý click button Comment</t>
+  </si>
+  <si>
+    <t>2.4. Xử lý khi Click vào cbbRating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi người dùng Click vào cbb hiển thị ra danh sách các đánh giá cho người dùng lựa chọn bao gồm: </t>
+  </si>
+  <si>
+    <t>1 - Tệ</t>
+  </si>
+  <si>
+    <t>2 - Tạm</t>
+  </si>
+  <si>
+    <t>3 - Tốt</t>
+  </si>
+  <si>
+    <t>4 - Rất tốt</t>
+  </si>
+  <si>
+    <t>5 - Tuyệt vời</t>
+  </si>
+  <si>
+    <t>Khi người dùng chọn vào 1 trong những lựa chọn trên thì lấy dữ liệu và hiển thị lên cbb</t>
   </si>
 </sst>
 </file>
@@ -582,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -629,9 +689,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,6 +735,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -762,6 +822,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A379C9-C937-4045-B884-518D9F5F8D7E}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -1581,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBE3B27-7E74-43DE-9E7A-82E6F7816E75}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1615,7 +1676,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="77"/>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="78"/>
@@ -1628,21 +1689,21 @@
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" s="73"/>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="38"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="63"/>
-      <c r="J2" s="37"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="78"/>
       <c r="L2" s="79"/>
       <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K3" s="36"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
@@ -1665,16 +1726,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
-      <c r="B5" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="28"/>
       <c r="K5" s="27"/>
       <c r="L5" s="26"/>
@@ -1682,14 +1743,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
-      <c r="B6" s="28"/>
+      <c r="B6" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="28"/>
       <c r="K6" s="27"/>
       <c r="L6" s="26"/>
@@ -1697,48 +1760,50 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="28" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="28"/>
       <c r="K7" s="27"/>
       <c r="L7" s="26"/>
       <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="28"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="28" t="s">
+        <v>29</v>
+      </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="28"/>
       <c r="K8" s="27"/>
       <c r="L8" s="26"/>
       <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="33" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="28"/>
       <c r="K9" s="27"/>
       <c r="L9" s="26"/>
@@ -1746,16 +1811,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="30"/>
+      <c r="B10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="28"/>
       <c r="K10" s="27"/>
       <c r="L10" s="26"/>
@@ -1765,9 +1830,9 @@
       <c r="A11" s="29"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="D11" s="52"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -1780,13 +1845,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
-      <c r="B12" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
@@ -1798,10 +1863,10 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="52" t="s">
+        <v>19</v>
+      </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
@@ -1815,10 +1880,10 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="52" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
@@ -1831,11 +1896,11 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
@@ -1849,10 +1914,10 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
       <c r="B16" s="28"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
@@ -1865,9 +1930,9 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
-      <c r="B17" s="33"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -1881,231 +1946,357 @@
       <c r="M17" s="25"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="25"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="25"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="25"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="25"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="51"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="44"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="7">
